--- a/project/doc/未完成模块.xlsx
+++ b/project/doc/未完成模块.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,10 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -141,7 +147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -183,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,7 +224,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,16 +436,16 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="56.375" customWidth="1"/>
+    <col min="2" max="2" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,174 +456,184 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>

--- a/project/doc/未完成模块.xlsx
+++ b/project/doc/未完成模块.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>存储模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查训练代码开始测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经实现基础模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,19 +445,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56.375" customWidth="1"/>
     <col min="2" max="2" width="36.375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +468,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -466,8 +482,9 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -477,8 +494,9 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -488,8 +506,11 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -499,8 +520,9 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -510,8 +532,9 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -521,122 +544,149 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/project/doc/未完成模块.xlsx
+++ b/project/doc/未完成模块.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,9 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>训练计划生成代码(改变DataServer，Designer)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +68,26 @@
   </si>
   <si>
     <t>已经实现基础模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现等待时候坐标为0，0时候，闪现在起始点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次完成检测后查看是否有冲突，如果还有冲突则告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q学习时候的值不对，没有冲突时候和有冲突时候评价不等效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仔细研究各个参数的具体值设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +176,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -201,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,7 +253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,241 +465,251 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.375" customWidth="1"/>
-    <col min="2" max="2" width="36.375" customWidth="1"/>
+    <col min="1" max="1" width="56.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>

--- a/project/doc/未完成模块.xlsx
+++ b/project/doc/未完成模块.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,22 @@
   </si>
   <si>
     <t>仔细研究各个参数的具体值设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仍然存在过点时间冲突，当前时间阈值10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning:在相反节点中，存在潜在冲突对=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning:在不同节点中，存在潜在冲突对=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q学习中减速动作速度小于最小阈值=5.0 m/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,12 +174,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -176,7 +199,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -218,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,7 +276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,18 +487,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="56.375" customWidth="1"/>
+    <col min="2" max="2" width="53.75" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -501,7 +524,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -513,7 +536,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -527,7 +550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -539,7 +562,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -551,7 +574,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -563,7 +586,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -575,7 +598,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -585,19 +608,19 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -605,7 +628,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -613,15 +636,15 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -629,7 +652,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -637,79 +660,87 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
